--- a/spalling.xlsx
+++ b/spalling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delto\Dropbox\python\Concrete\Spalling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDF72EB-C579-48EB-8E8F-D1257172F7DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD573D39-8254-42BC-A0DE-E5054A95896B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{626C1325-BBAB-40E7-B20C-582232EBEF2A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{626C1325-BBAB-40E7-B20C-582232EBEF2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="23">
   <si>
     <t>-</t>
   </si>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -459,15 +459,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E074AA0D-D2A1-4FF3-982D-53F03511EBB6}">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -532,7 +532,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1.4</v>
       </c>
@@ -565,7 +565,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.5</v>
       </c>
@@ -598,7 +598,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2.1</v>
       </c>
@@ -631,7 +631,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2.4</v>
       </c>
@@ -664,7 +664,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3.3</v>
       </c>
@@ -697,7 +697,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3.5</v>
       </c>
@@ -730,7 +730,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4.0999999999999996</v>
       </c>
@@ -763,7 +763,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>4.3</v>
       </c>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4.4000000000000004</v>
       </c>
@@ -829,7 +829,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5.2</v>
       </c>
@@ -862,7 +862,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>5.6</v>
       </c>
@@ -895,7 +895,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>6.2</v>
       </c>
@@ -928,7 +928,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>6.4</v>
       </c>
@@ -961,7 +961,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>6.6</v>
       </c>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>7.3</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>7.5</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>8.1300000000000008</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>8.15</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>9.3000000000000007</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>9.6</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>10.1</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>10.199999999999999</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>10.3</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>10.4</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>10.5</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>10.6</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>10.119999999999999</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>10.14</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>10.16</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>10.17</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>10.18</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>10.210000000000001</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>10.220000000000001</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>10.23</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>10.24</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>10.25</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>20.260000000000002</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>11.5</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>11.7</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>12.1</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>12.2</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>12.3</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>12.8</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>13.6</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>13.7</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>14.3</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>14.8</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>15.5</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>15.6</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>16.100000000000001</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>16.399999999999999</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>16.600000000000001</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>16.899999999999999</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>17.3</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>17.899999999999999</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>18.5</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>18</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>0.6</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>19.5</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>19.600000000000001</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>25.5</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>26.8</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>27.1</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>27.2</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>46.9</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>46.1</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>46.11</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>46.12</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>46.17</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>46.18</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>16.190000000000001</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>46.21</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>46.22</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>46.23</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>46.24</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>46.25</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>46.26</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>46.27</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>46.28</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>50.1</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>20.2</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>55.1</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>55.2</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>56.3</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>56.4</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>57.1</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>57.2</v>
       </c>
@@ -3698,6 +3698,2547 @@
       </c>
       <c r="J98">
         <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>28.3</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99">
+        <v>760</v>
+      </c>
+      <c r="G99" s="2">
+        <f>F99/100</f>
+        <v>7.6</v>
+      </c>
+      <c r="H99">
+        <v>187</v>
+      </c>
+      <c r="I99">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J99">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>28.8</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100">
+        <v>764</v>
+      </c>
+      <c r="G100" s="2">
+        <f t="shared" ref="G100:G136" si="3">F100/100</f>
+        <v>7.64</v>
+      </c>
+      <c r="H100">
+        <v>187</v>
+      </c>
+      <c r="I100">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J100">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>30.2</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D101">
+        <v>12.5</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101">
+        <v>1018</v>
+      </c>
+      <c r="G101" s="2">
+        <f t="shared" si="3"/>
+        <v>10.18</v>
+      </c>
+      <c r="H101">
+        <v>193</v>
+      </c>
+      <c r="I101">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J101">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>30.3</v>
+      </c>
+      <c r="B102">
+        <v>37</v>
+      </c>
+      <c r="C102" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102">
+        <v>1056</v>
+      </c>
+      <c r="G102" s="2">
+        <f t="shared" si="3"/>
+        <v>10.56</v>
+      </c>
+      <c r="H102" t="s">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J102">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>31.4</v>
+      </c>
+      <c r="B103">
+        <v>21</v>
+      </c>
+      <c r="C103">
+        <v>4.2</v>
+      </c>
+      <c r="D103">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E103" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103">
+        <v>748</v>
+      </c>
+      <c r="G103" s="2">
+        <f t="shared" si="3"/>
+        <v>7.48</v>
+      </c>
+      <c r="H103">
+        <v>186</v>
+      </c>
+      <c r="I103">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J103">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>31.5</v>
+      </c>
+      <c r="B104">
+        <v>28</v>
+      </c>
+      <c r="C104">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D104">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104">
+        <v>756</v>
+      </c>
+      <c r="G104" s="2">
+        <f t="shared" si="3"/>
+        <v>7.56</v>
+      </c>
+      <c r="H104">
+        <v>185</v>
+      </c>
+      <c r="I104">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J104">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>31.8</v>
+      </c>
+      <c r="B105">
+        <v>28</v>
+      </c>
+      <c r="C105">
+        <v>6.4</v>
+      </c>
+      <c r="D105">
+        <v>5.2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>184</v>
+      </c>
+      <c r="I105">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J105">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>31.9</v>
+      </c>
+      <c r="B106">
+        <v>13</v>
+      </c>
+      <c r="C106">
+        <v>5.5</v>
+      </c>
+      <c r="D106">
+        <v>8.4</v>
+      </c>
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>184</v>
+      </c>
+      <c r="I106">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J106">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>3.7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107">
+        <v>760</v>
+      </c>
+      <c r="G107" s="2">
+        <f t="shared" si="3"/>
+        <v>7.6</v>
+      </c>
+      <c r="H107">
+        <v>196</v>
+      </c>
+      <c r="I107">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J107">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>1.9</v>
+      </c>
+      <c r="E108" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108">
+        <v>791</v>
+      </c>
+      <c r="G108" s="2">
+        <f t="shared" si="3"/>
+        <v>7.91</v>
+      </c>
+      <c r="H108">
+        <v>183</v>
+      </c>
+      <c r="I108">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J108">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>33.1</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109">
+        <v>797</v>
+      </c>
+      <c r="G109" s="2">
+        <f t="shared" si="3"/>
+        <v>7.97</v>
+      </c>
+      <c r="H109">
+        <v>207</v>
+      </c>
+      <c r="I109">
+        <v>4</v>
+      </c>
+      <c r="J109">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>33.4</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>2.7</v>
+      </c>
+      <c r="E110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110">
+        <v>809</v>
+      </c>
+      <c r="G110" s="2">
+        <f t="shared" si="3"/>
+        <v>8.09</v>
+      </c>
+      <c r="H110">
+        <v>201</v>
+      </c>
+      <c r="I110">
+        <v>4</v>
+      </c>
+      <c r="J110">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>34.1</v>
+      </c>
+      <c r="B111">
+        <v>38</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>9.6</v>
+      </c>
+      <c r="E111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111">
+        <v>764</v>
+      </c>
+      <c r="G111" s="2">
+        <f t="shared" si="3"/>
+        <v>7.64</v>
+      </c>
+      <c r="H111">
+        <v>174</v>
+      </c>
+      <c r="I111" t="s">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="B112">
+        <v>43</v>
+      </c>
+      <c r="C112">
+        <v>3.3</v>
+      </c>
+      <c r="D112">
+        <v>10.8</v>
+      </c>
+      <c r="E112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112">
+        <v>753</v>
+      </c>
+      <c r="G112" s="2">
+        <f t="shared" si="3"/>
+        <v>7.53</v>
+      </c>
+      <c r="H112">
+        <v>179</v>
+      </c>
+      <c r="I112" t="s">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>35.1</v>
+      </c>
+      <c r="B113">
+        <v>23</v>
+      </c>
+      <c r="C113">
+        <v>7.3</v>
+      </c>
+      <c r="D113">
+        <v>3.9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113">
+        <v>783</v>
+      </c>
+      <c r="G113" s="2">
+        <f t="shared" si="3"/>
+        <v>7.83</v>
+      </c>
+      <c r="H113">
+        <v>180</v>
+      </c>
+      <c r="I113">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J113">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>2.7</v>
+      </c>
+      <c r="E114" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114">
+        <v>800</v>
+      </c>
+      <c r="G114" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="H114">
+        <v>180</v>
+      </c>
+      <c r="I114">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J114">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>1.3</v>
+      </c>
+      <c r="E115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115">
+        <v>753</v>
+      </c>
+      <c r="G115" s="2">
+        <f t="shared" si="3"/>
+        <v>7.53</v>
+      </c>
+      <c r="H115">
+        <v>188</v>
+      </c>
+      <c r="I115">
+        <v>4.8</v>
+      </c>
+      <c r="J115">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>38.4</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>1.3</v>
+      </c>
+      <c r="E116" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116">
+        <v>819</v>
+      </c>
+      <c r="G116" s="2">
+        <f t="shared" si="3"/>
+        <v>8.19</v>
+      </c>
+      <c r="H116">
+        <v>192</v>
+      </c>
+      <c r="I116">
+        <v>4.8</v>
+      </c>
+      <c r="J116">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>39.119999999999997</v>
+      </c>
+      <c r="B117">
+        <v>59</v>
+      </c>
+      <c r="C117">
+        <v>53.4</v>
+      </c>
+      <c r="D117">
+        <v>22.6</v>
+      </c>
+      <c r="E117" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117">
+        <v>920</v>
+      </c>
+      <c r="G117" s="2">
+        <f t="shared" si="3"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H117">
+        <v>197</v>
+      </c>
+      <c r="I117">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J117">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>39.130000000000003</v>
+      </c>
+      <c r="B118">
+        <v>41</v>
+      </c>
+      <c r="C118">
+        <v>2.8</v>
+      </c>
+      <c r="D118">
+        <v>12.6</v>
+      </c>
+      <c r="E118" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118">
+        <v>1019</v>
+      </c>
+      <c r="G118" s="2">
+        <f t="shared" si="3"/>
+        <v>10.19</v>
+      </c>
+      <c r="H118">
+        <v>368</v>
+      </c>
+      <c r="I118">
+        <v>4.8</v>
+      </c>
+      <c r="J118">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>39.14</v>
+      </c>
+      <c r="B119">
+        <v>31</v>
+      </c>
+      <c r="C119">
+        <v>3.8</v>
+      </c>
+      <c r="D119">
+        <v>6</v>
+      </c>
+      <c r="E119" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119">
+        <v>734</v>
+      </c>
+      <c r="G119" s="2">
+        <f t="shared" si="3"/>
+        <v>7.34</v>
+      </c>
+      <c r="H119">
+        <v>92</v>
+      </c>
+      <c r="I119">
+        <v>5.5</v>
+      </c>
+      <c r="J119">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>39.15</v>
+      </c>
+      <c r="B120">
+        <v>35</v>
+      </c>
+      <c r="C120">
+        <v>3.7</v>
+      </c>
+      <c r="D120">
+        <v>3.7</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120">
+        <v>734</v>
+      </c>
+      <c r="G120" s="2">
+        <f t="shared" si="3"/>
+        <v>7.34</v>
+      </c>
+      <c r="H120">
+        <v>91</v>
+      </c>
+      <c r="I120">
+        <v>5.5</v>
+      </c>
+      <c r="J120">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>39.17</v>
+      </c>
+      <c r="B121">
+        <v>43</v>
+      </c>
+      <c r="C121">
+        <v>2.6</v>
+      </c>
+      <c r="D121">
+        <v>14.8</v>
+      </c>
+      <c r="E121" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121">
+        <v>1000</v>
+      </c>
+      <c r="G121" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H121">
+        <v>970</v>
+      </c>
+      <c r="I121">
+        <v>4.8</v>
+      </c>
+      <c r="J121">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>39.18</v>
+      </c>
+      <c r="B122">
+        <v>42</v>
+      </c>
+      <c r="C122">
+        <v>2.8</v>
+      </c>
+      <c r="D122">
+        <v>14.7</v>
+      </c>
+      <c r="E122" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122">
+        <v>360</v>
+      </c>
+      <c r="G122" s="2">
+        <f t="shared" si="3"/>
+        <v>3.6</v>
+      </c>
+      <c r="H122">
+        <v>91</v>
+      </c>
+      <c r="I122">
+        <v>5.5</v>
+      </c>
+      <c r="J122">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>39.19</v>
+      </c>
+      <c r="B123">
+        <v>64</v>
+      </c>
+      <c r="C123">
+        <v>3.3</v>
+      </c>
+      <c r="D123">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E123" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123">
+        <v>507</v>
+      </c>
+      <c r="G123" s="2">
+        <f t="shared" si="3"/>
+        <v>5.07</v>
+      </c>
+      <c r="H123">
+        <v>364</v>
+      </c>
+      <c r="I123">
+        <v>4.8</v>
+      </c>
+      <c r="J123">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="B124">
+        <v>49</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>15.8</v>
+      </c>
+      <c r="E124" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124">
+        <v>362</v>
+      </c>
+      <c r="G124" s="2">
+        <f t="shared" si="3"/>
+        <v>3.62</v>
+      </c>
+      <c r="H124">
+        <v>88</v>
+      </c>
+      <c r="I124">
+        <v>5.5</v>
+      </c>
+      <c r="J124">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>39.229999999999997</v>
+      </c>
+      <c r="B125">
+        <v>63</v>
+      </c>
+      <c r="C125">
+        <v>3.2</v>
+      </c>
+      <c r="D125">
+        <v>14.3</v>
+      </c>
+      <c r="E125" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125">
+        <v>503</v>
+      </c>
+      <c r="G125" s="2">
+        <f t="shared" si="3"/>
+        <v>5.03</v>
+      </c>
+      <c r="H125">
+        <v>363</v>
+      </c>
+      <c r="I125">
+        <v>4.8</v>
+      </c>
+      <c r="J125">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>39.25</v>
+      </c>
+      <c r="B126">
+        <v>24</v>
+      </c>
+      <c r="C126">
+        <v>3.8</v>
+      </c>
+      <c r="D126">
+        <v>7.5</v>
+      </c>
+      <c r="E126" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>173</v>
+      </c>
+      <c r="I126">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J126">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>39.270000000000003</v>
+      </c>
+      <c r="B127">
+        <v>53</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>15.5</v>
+      </c>
+      <c r="E127" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127">
+        <v>462</v>
+      </c>
+      <c r="G127" s="2">
+        <f t="shared" si="3"/>
+        <v>4.62</v>
+      </c>
+      <c r="H127">
+        <v>181</v>
+      </c>
+      <c r="I127">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J127">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>39.28</v>
+      </c>
+      <c r="B128">
+        <v>48</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128">
+        <v>12.1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128">
+        <v>953</v>
+      </c>
+      <c r="G128" s="2">
+        <f t="shared" si="3"/>
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="H128">
+        <v>169</v>
+      </c>
+      <c r="I128">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J128">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>39.29</v>
+      </c>
+      <c r="B129">
+        <v>64</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>15.2</v>
+      </c>
+      <c r="E129" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129">
+        <v>934</v>
+      </c>
+      <c r="G129" s="2">
+        <f t="shared" si="3"/>
+        <v>9.34</v>
+      </c>
+      <c r="H129">
+        <v>179</v>
+      </c>
+      <c r="I129">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J129">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="B130">
+        <v>24</v>
+      </c>
+      <c r="C130">
+        <v>2.7</v>
+      </c>
+      <c r="D130">
+        <v>7.5</v>
+      </c>
+      <c r="E130" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>172</v>
+      </c>
+      <c r="I130">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J130">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>39.31</v>
+      </c>
+      <c r="B131">
+        <v>66</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="D131">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E131" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131">
+        <v>461</v>
+      </c>
+      <c r="G131" s="2">
+        <f t="shared" si="3"/>
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="H131">
+        <v>180</v>
+      </c>
+      <c r="I131">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J131">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>39.33</v>
+      </c>
+      <c r="B132">
+        <v>59</v>
+      </c>
+      <c r="C132">
+        <v>13</v>
+      </c>
+      <c r="D132">
+        <v>13.8</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>436</v>
+      </c>
+      <c r="G132" s="2">
+        <f t="shared" si="3"/>
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="H132">
+        <v>280</v>
+      </c>
+      <c r="I132">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J132">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="B133">
+        <v>41</v>
+      </c>
+      <c r="C133">
+        <v>13</v>
+      </c>
+      <c r="D133">
+        <v>12.5</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>442</v>
+      </c>
+      <c r="G133" s="2">
+        <f t="shared" si="3"/>
+        <v>4.42</v>
+      </c>
+      <c r="H133">
+        <v>281</v>
+      </c>
+      <c r="I133" t="s">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>39.35</v>
+      </c>
+      <c r="B134">
+        <v>55</v>
+      </c>
+      <c r="C134">
+        <v>10</v>
+      </c>
+      <c r="D134">
+        <v>12.5</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>924</v>
+      </c>
+      <c r="G134" s="2">
+        <f t="shared" si="3"/>
+        <v>9.24</v>
+      </c>
+      <c r="H134">
+        <v>183</v>
+      </c>
+      <c r="I134">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J134">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>39.36</v>
+      </c>
+      <c r="B135">
+        <v>64</v>
+      </c>
+      <c r="C135">
+        <v>31.9</v>
+      </c>
+      <c r="D135">
+        <v>18.3</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135">
+        <v>884</v>
+      </c>
+      <c r="G135" s="2">
+        <f t="shared" si="3"/>
+        <v>8.84</v>
+      </c>
+      <c r="H135">
+        <v>190</v>
+      </c>
+      <c r="I135">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J135">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>39.369999999999997</v>
+      </c>
+      <c r="B136">
+        <v>71</v>
+      </c>
+      <c r="C136">
+        <v>30</v>
+      </c>
+      <c r="D136">
+        <v>17.3</v>
+      </c>
+      <c r="E136" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136">
+        <v>920</v>
+      </c>
+      <c r="G136" s="2">
+        <f t="shared" si="3"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H136">
+        <v>181</v>
+      </c>
+      <c r="I136">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J136">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>39.380000000000003</v>
+      </c>
+      <c r="B137">
+        <v>47</v>
+      </c>
+      <c r="C137">
+        <v>2.5</v>
+      </c>
+      <c r="D137">
+        <v>13.7</v>
+      </c>
+      <c r="E137" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137">
+        <v>910</v>
+      </c>
+      <c r="G137" s="2">
+        <f>F137/100</f>
+        <v>9.1</v>
+      </c>
+      <c r="H137">
+        <v>275</v>
+      </c>
+      <c r="I137" t="s">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>39.39</v>
+      </c>
+      <c r="B138">
+        <v>65</v>
+      </c>
+      <c r="C138">
+        <v>2.7</v>
+      </c>
+      <c r="D138">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E138" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138">
+        <v>874</v>
+      </c>
+      <c r="G138" s="2">
+        <f t="shared" ref="G138:G175" si="4">F138/100</f>
+        <v>8.74</v>
+      </c>
+      <c r="H138">
+        <v>278</v>
+      </c>
+      <c r="I138" t="s">
+        <v>0</v>
+      </c>
+      <c r="J138" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>39.4</v>
+      </c>
+      <c r="B139">
+        <v>67</v>
+      </c>
+      <c r="C139">
+        <v>11</v>
+      </c>
+      <c r="D139">
+        <v>19.7</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>915</v>
+      </c>
+      <c r="G139" s="2">
+        <f t="shared" si="4"/>
+        <v>9.15</v>
+      </c>
+      <c r="H139">
+        <v>180</v>
+      </c>
+      <c r="I139">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J139">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>1.7</v>
+      </c>
+      <c r="E140" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140">
+        <v>811</v>
+      </c>
+      <c r="G140" s="2">
+        <f t="shared" si="4"/>
+        <v>8.11</v>
+      </c>
+      <c r="H140">
+        <v>166</v>
+      </c>
+      <c r="I140">
+        <v>4.3</v>
+      </c>
+      <c r="J140">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>40.4</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>4.8</v>
+      </c>
+      <c r="E141" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141">
+        <v>816</v>
+      </c>
+      <c r="G141" s="2">
+        <f t="shared" si="4"/>
+        <v>8.16</v>
+      </c>
+      <c r="H141">
+        <v>166</v>
+      </c>
+      <c r="I141">
+        <v>4.3</v>
+      </c>
+      <c r="J141">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>41.1</v>
+      </c>
+      <c r="B142">
+        <v>27</v>
+      </c>
+      <c r="C142">
+        <v>6.3</v>
+      </c>
+      <c r="D142">
+        <v>11.2</v>
+      </c>
+      <c r="E142" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142">
+        <v>975</v>
+      </c>
+      <c r="G142" s="2">
+        <f t="shared" si="4"/>
+        <v>9.75</v>
+      </c>
+      <c r="H142">
+        <v>167</v>
+      </c>
+      <c r="I142">
+        <v>4.8</v>
+      </c>
+      <c r="J142">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>41.2</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143">
+        <v>964</v>
+      </c>
+      <c r="G143" s="2">
+        <f t="shared" si="4"/>
+        <v>9.64</v>
+      </c>
+      <c r="H143">
+        <v>168</v>
+      </c>
+      <c r="I143">
+        <v>4.8</v>
+      </c>
+      <c r="J143">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>42.3</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+      <c r="E144" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144">
+        <v>911</v>
+      </c>
+      <c r="G144" s="2">
+        <f t="shared" si="4"/>
+        <v>9.11</v>
+      </c>
+      <c r="H144">
+        <v>194</v>
+      </c>
+      <c r="I144" t="s">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>42.4</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0.9</v>
+      </c>
+      <c r="E145" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145">
+        <v>851</v>
+      </c>
+      <c r="G145" s="2">
+        <f t="shared" si="4"/>
+        <v>8.51</v>
+      </c>
+      <c r="H145">
+        <v>194</v>
+      </c>
+      <c r="I145" t="s">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>43.7</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>3.2</v>
+      </c>
+      <c r="E146" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146">
+        <v>860</v>
+      </c>
+      <c r="G146" s="2">
+        <f t="shared" si="4"/>
+        <v>8.6</v>
+      </c>
+      <c r="H146">
+        <v>190</v>
+      </c>
+      <c r="I146">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J146">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>43.8</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>2.8</v>
+      </c>
+      <c r="E147" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147">
+        <v>911</v>
+      </c>
+      <c r="G147" s="2">
+        <f t="shared" si="4"/>
+        <v>9.11</v>
+      </c>
+      <c r="H147">
+        <v>190</v>
+      </c>
+      <c r="I147">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J147">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>44.3</v>
+      </c>
+      <c r="B148">
+        <v>16</v>
+      </c>
+      <c r="C148">
+        <v>3.8</v>
+      </c>
+      <c r="D148">
+        <v>2.7</v>
+      </c>
+      <c r="E148" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148">
+        <v>820</v>
+      </c>
+      <c r="G148" s="2">
+        <f t="shared" si="4"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H148">
+        <v>191</v>
+      </c>
+      <c r="I148" t="s">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>44.4</v>
+      </c>
+      <c r="B149">
+        <v>26</v>
+      </c>
+      <c r="C149">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D149">
+        <v>4</v>
+      </c>
+      <c r="E149" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149">
+        <v>838</v>
+      </c>
+      <c r="G149" s="2">
+        <f t="shared" si="4"/>
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="H149">
+        <v>191</v>
+      </c>
+      <c r="I149" t="s">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>45.1</v>
+      </c>
+      <c r="B150">
+        <v>11</v>
+      </c>
+      <c r="C150">
+        <v>3.9</v>
+      </c>
+      <c r="D150">
+        <v>2.7</v>
+      </c>
+      <c r="E150" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>192</v>
+      </c>
+      <c r="I150">
+        <v>4.8</v>
+      </c>
+      <c r="J150">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>45.11</v>
+      </c>
+      <c r="B151">
+        <v>10</v>
+      </c>
+      <c r="C151">
+        <v>4.2</v>
+      </c>
+      <c r="D151">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E151" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151">
+        <v>399</v>
+      </c>
+      <c r="G151" s="2">
+        <f t="shared" si="4"/>
+        <v>3.99</v>
+      </c>
+      <c r="H151">
+        <v>100</v>
+      </c>
+      <c r="I151">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J151">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>45.12</v>
+      </c>
+      <c r="B152">
+        <v>20</v>
+      </c>
+      <c r="C152">
+        <v>4.2</v>
+      </c>
+      <c r="D152">
+        <v>5.6</v>
+      </c>
+      <c r="E152" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152">
+        <v>773</v>
+      </c>
+      <c r="G152" s="2">
+        <f t="shared" si="4"/>
+        <v>7.73</v>
+      </c>
+      <c r="H152">
+        <v>102</v>
+      </c>
+      <c r="I152">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J152">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>45.15</v>
+      </c>
+      <c r="B153">
+        <v>18</v>
+      </c>
+      <c r="C153">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D153">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E153" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153">
+        <v>857</v>
+      </c>
+      <c r="G153" s="2">
+        <f t="shared" si="4"/>
+        <v>8.57</v>
+      </c>
+      <c r="H153">
+        <v>361</v>
+      </c>
+      <c r="I153">
+        <v>4.3</v>
+      </c>
+      <c r="J153">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>45.16</v>
+      </c>
+      <c r="B154">
+        <v>15</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="D154">
+        <v>7</v>
+      </c>
+      <c r="E154" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154">
+        <v>476</v>
+      </c>
+      <c r="G154" s="2">
+        <f t="shared" si="4"/>
+        <v>4.76</v>
+      </c>
+      <c r="H154">
+        <v>360</v>
+      </c>
+      <c r="I154">
+        <v>4.3</v>
+      </c>
+      <c r="J154">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>45.17</v>
+      </c>
+      <c r="B155">
+        <v>11</v>
+      </c>
+      <c r="C155">
+        <v>3.4</v>
+      </c>
+      <c r="D155">
+        <v>5.5</v>
+      </c>
+      <c r="E155" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155">
+        <v>876</v>
+      </c>
+      <c r="G155" s="2">
+        <f t="shared" si="4"/>
+        <v>8.76</v>
+      </c>
+      <c r="H155">
+        <v>360</v>
+      </c>
+      <c r="I155">
+        <v>4.3</v>
+      </c>
+      <c r="J155">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>45.18</v>
+      </c>
+      <c r="B156">
+        <v>14</v>
+      </c>
+      <c r="C156">
+        <v>3.5</v>
+      </c>
+      <c r="D156">
+        <v>5.4</v>
+      </c>
+      <c r="E156" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156">
+        <v>445</v>
+      </c>
+      <c r="G156" s="2">
+        <f t="shared" si="4"/>
+        <v>4.45</v>
+      </c>
+      <c r="H156">
+        <v>359</v>
+      </c>
+      <c r="I156">
+        <v>4.3</v>
+      </c>
+      <c r="J156">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>45.2</v>
+      </c>
+      <c r="B157">
+        <v>13</v>
+      </c>
+      <c r="C157">
+        <v>3.3</v>
+      </c>
+      <c r="D157">
+        <v>2.1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>192</v>
+      </c>
+      <c r="I157">
+        <v>4.8</v>
+      </c>
+      <c r="J157">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>45.21</v>
+      </c>
+      <c r="B158">
+        <v>23</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+      <c r="D158">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E158" t="s">
+        <v>12</v>
+      </c>
+      <c r="F158">
+        <v>917</v>
+      </c>
+      <c r="G158" s="2">
+        <f t="shared" si="4"/>
+        <v>9.17</v>
+      </c>
+      <c r="H158">
+        <v>274</v>
+      </c>
+      <c r="I158">
+        <v>4.3</v>
+      </c>
+      <c r="J158">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>45.22</v>
+      </c>
+      <c r="B159">
+        <v>16</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="D159">
+        <v>4.3</v>
+      </c>
+      <c r="E159" t="s">
+        <v>12</v>
+      </c>
+      <c r="F159">
+        <v>443</v>
+      </c>
+      <c r="G159" s="2">
+        <f t="shared" si="4"/>
+        <v>4.43</v>
+      </c>
+      <c r="H159">
+        <v>273</v>
+      </c>
+      <c r="I159">
+        <v>4.3</v>
+      </c>
+      <c r="J159">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>45.23</v>
+      </c>
+      <c r="B160">
+        <v>26</v>
+      </c>
+      <c r="C160">
+        <v>1.7</v>
+      </c>
+      <c r="D160">
+        <v>5.4</v>
+      </c>
+      <c r="E160" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160">
+        <v>864</v>
+      </c>
+      <c r="G160" s="2">
+        <f t="shared" si="4"/>
+        <v>8.64</v>
+      </c>
+      <c r="H160">
+        <v>274</v>
+      </c>
+      <c r="I160">
+        <v>4.3</v>
+      </c>
+      <c r="J160">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>45.24</v>
+      </c>
+      <c r="B161">
+        <v>19</v>
+      </c>
+      <c r="C161">
+        <v>2.1</v>
+      </c>
+      <c r="D161">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E161" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161">
+        <v>283</v>
+      </c>
+      <c r="G161" s="2">
+        <f t="shared" si="4"/>
+        <v>2.83</v>
+      </c>
+      <c r="H161">
+        <v>274</v>
+      </c>
+      <c r="I161">
+        <v>4.3</v>
+      </c>
+      <c r="J161">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>45.4</v>
+      </c>
+      <c r="B162">
+        <v>16</v>
+      </c>
+      <c r="C162">
+        <v>3.7</v>
+      </c>
+      <c r="D162">
+        <v>5.4</v>
+      </c>
+      <c r="E162" t="s">
+        <v>12</v>
+      </c>
+      <c r="F162">
+        <v>821</v>
+      </c>
+      <c r="G162" s="2">
+        <f t="shared" si="4"/>
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="H162">
+        <v>193</v>
+      </c>
+      <c r="I162">
+        <v>4.8</v>
+      </c>
+      <c r="J162">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>45.6</v>
+      </c>
+      <c r="B163">
+        <v>20</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+      <c r="D163">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E163" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163">
+        <v>864</v>
+      </c>
+      <c r="G163" s="2">
+        <f t="shared" si="4"/>
+        <v>8.64</v>
+      </c>
+      <c r="H163">
+        <v>193</v>
+      </c>
+      <c r="I163">
+        <v>4.8</v>
+      </c>
+      <c r="J163">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>45.7</v>
+      </c>
+      <c r="B164">
+        <v>22</v>
+      </c>
+      <c r="C164">
+        <v>3.7</v>
+      </c>
+      <c r="D164">
+        <v>6.8</v>
+      </c>
+      <c r="E164" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164">
+        <v>786</v>
+      </c>
+      <c r="G164" s="2">
+        <f t="shared" si="4"/>
+        <v>7.86</v>
+      </c>
+      <c r="H164">
+        <v>102</v>
+      </c>
+      <c r="I164">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J164">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>45.8</v>
+      </c>
+      <c r="B165">
+        <v>20</v>
+      </c>
+      <c r="C165">
+        <v>5.3</v>
+      </c>
+      <c r="D165">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E165" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165">
+        <v>388</v>
+      </c>
+      <c r="G165" s="2">
+        <f t="shared" si="4"/>
+        <v>3.88</v>
+      </c>
+      <c r="H165">
+        <v>100</v>
+      </c>
+      <c r="I165">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J165">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>47.1</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+      <c r="E166" t="s">
+        <v>12</v>
+      </c>
+      <c r="F166">
+        <v>952</v>
+      </c>
+      <c r="G166" s="2">
+        <f t="shared" si="4"/>
+        <v>9.52</v>
+      </c>
+      <c r="H166">
+        <v>185</v>
+      </c>
+      <c r="I166">
+        <v>4.5</v>
+      </c>
+      <c r="J166">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>47.2</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167" t="s">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>3.1</v>
+      </c>
+      <c r="E167" t="s">
+        <v>12</v>
+      </c>
+      <c r="F167">
+        <v>1020</v>
+      </c>
+      <c r="G167" s="2">
+        <f t="shared" si="4"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H167">
+        <v>185</v>
+      </c>
+      <c r="I167">
+        <v>4.5</v>
+      </c>
+      <c r="J167">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>51.3</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168" t="s">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>2.9</v>
+      </c>
+      <c r="E168" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168">
+        <v>709</v>
+      </c>
+      <c r="G168" s="2">
+        <f t="shared" si="4"/>
+        <v>7.09</v>
+      </c>
+      <c r="H168">
+        <v>201</v>
+      </c>
+      <c r="I168">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J168">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>51.4</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169" t="s">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>3.6</v>
+      </c>
+      <c r="E169" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169">
+        <v>715</v>
+      </c>
+      <c r="G169" s="2">
+        <f t="shared" si="4"/>
+        <v>7.15</v>
+      </c>
+      <c r="H169">
+        <v>202</v>
+      </c>
+      <c r="I169">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J169">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>52.3</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170" t="s">
+        <v>0</v>
+      </c>
+      <c r="D170" t="s">
+        <v>0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>12</v>
+      </c>
+      <c r="F170">
+        <v>718</v>
+      </c>
+      <c r="G170" s="2">
+        <f t="shared" si="4"/>
+        <v>7.18</v>
+      </c>
+      <c r="H170">
+        <v>202</v>
+      </c>
+      <c r="I170">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J170">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>52.4</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171" t="s">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>2.5</v>
+      </c>
+      <c r="E171" t="s">
+        <v>12</v>
+      </c>
+      <c r="F171">
+        <v>697</v>
+      </c>
+      <c r="G171" s="2">
+        <f t="shared" si="4"/>
+        <v>6.97</v>
+      </c>
+      <c r="H171">
+        <v>203</v>
+      </c>
+      <c r="I171">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J171">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>53.1</v>
+      </c>
+      <c r="B172">
+        <v>4</v>
+      </c>
+      <c r="C172" t="s">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>2.7</v>
+      </c>
+      <c r="E172" t="s">
+        <v>12</v>
+      </c>
+      <c r="F172">
+        <v>520</v>
+      </c>
+      <c r="G172" s="2">
+        <f t="shared" si="4"/>
+        <v>5.2</v>
+      </c>
+      <c r="H172">
+        <v>196</v>
+      </c>
+      <c r="I172">
+        <v>4.3</v>
+      </c>
+      <c r="J172">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>53.2</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173" t="s">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E173" t="s">
+        <v>12</v>
+      </c>
+      <c r="F173">
+        <v>532</v>
+      </c>
+      <c r="G173" s="2">
+        <f t="shared" si="4"/>
+        <v>5.32</v>
+      </c>
+      <c r="H173">
+        <v>196</v>
+      </c>
+      <c r="I173">
+        <v>4.3</v>
+      </c>
+      <c r="J173">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>54.3</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174" t="s">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>1.7</v>
+      </c>
+      <c r="E174" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174">
+        <v>471</v>
+      </c>
+      <c r="G174" s="2">
+        <f t="shared" si="4"/>
+        <v>4.71</v>
+      </c>
+      <c r="H174">
+        <v>197</v>
+      </c>
+      <c r="I174">
+        <v>4.5</v>
+      </c>
+      <c r="J174">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>54.4</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>1.4</v>
+      </c>
+      <c r="E175" t="s">
+        <v>12</v>
+      </c>
+      <c r="F175">
+        <v>487</v>
+      </c>
+      <c r="G175" s="2">
+        <f t="shared" si="4"/>
+        <v>4.87</v>
+      </c>
+      <c r="H175">
+        <v>200</v>
+      </c>
+      <c r="I175">
+        <v>4.5</v>
+      </c>
+      <c r="J175">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/spalling.xlsx
+++ b/spalling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delto\Dropbox\python\Concrete\Spalling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD573D39-8254-42BC-A0DE-E5054A95896B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC134E1-DAFB-4564-BA42-785C95126208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{626C1325-BBAB-40E7-B20C-582232EBEF2A}"/>
+    <workbookView xWindow="-20617" yWindow="-3517" windowWidth="20715" windowHeight="13425" xr2:uid="{626C1325-BBAB-40E7-B20C-582232EBEF2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E074AA0D-D2A1-4FF3-982D-53F03511EBB6}">
   <dimension ref="A1:J175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
